--- a/input_data/input_data_3.xlsx
+++ b/input_data/input_data_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A0C30D-5246-47FD-811A-AB8F5E825C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB0FC9-1AB6-4133-8ECF-6290FBE502D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
   <si>
     <t>node</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>res2_bypass</t>
+  </si>
+  <si>
+    <t>max_online</t>
+  </si>
+  <si>
+    <t>max_offline</t>
   </si>
 </sst>
 </file>
@@ -1702,199 +1708,199 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
   </sheetData>
@@ -1910,155 +1916,155 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -2077,17 +2083,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -2133,21 +2139,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2167,14 +2173,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="13" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -2302,7 +2308,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -2318,7 +2324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>
@@ -2389,14 +2395,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2411,7 +2417,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -2424,7 +2430,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>42.300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -2606,7 +2612,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>111.60000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>
@@ -2736,12 +2742,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2778,9 +2784,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2809,162 +2815,162 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -2983,155 +2989,155 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -3151,14 +3157,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3166,7 +3172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3201,15 +3207,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -3342,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -3516,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -3719,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -3806,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -3864,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f>IF($A26&lt;&gt;"",B$2,"")</f>
         <v/>
@@ -3961,20 +3967,20 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4051,7 +4057,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4128,7 +4134,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4293,155 +4299,155 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4454,27 +4460,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4512,13 +4519,19 @@
         <v>37</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4559,10 +4572,16 @@
         <v>0</v>
       </c>
       <c r="N2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4605,8 +4624,14 @@
       <c r="N3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4649,8 +4674,14 @@
       <c r="N4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -4693,8 +4724,14 @@
       <c r="N5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -4737,8 +4774,14 @@
       <c r="N6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -4781,8 +4824,14 @@
       <c r="N7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -4825,8 +4874,14 @@
       <c r="N8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G9" s="9"/>
     </row>
   </sheetData>
@@ -4842,9 +4897,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4897,24 +4952,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4940,7 +4995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -4966,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -4992,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -5018,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -5044,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
@@ -5070,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>53</v>
       </c>
@@ -5096,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -5122,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -5148,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -5174,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>54</v>
       </c>
@@ -5200,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -5226,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5252,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -5278,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
@@ -5304,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>61</v>
       </c>
@@ -5330,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>61</v>
       </c>
@@ -5371,155 +5426,155 @@
       <selection activeCell="D2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -5538,9 +5593,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -5561,20 +5616,20 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
@@ -5582,139 +5637,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -5735,14 +5790,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -5750,7 +5805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -5760,7 +5815,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -5770,7 +5825,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -5780,7 +5835,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -5790,7 +5845,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -5800,7 +5855,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -5810,7 +5865,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -5820,7 +5875,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -5830,7 +5885,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -5840,7 +5895,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -5850,7 +5905,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -5860,7 +5915,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -5870,7 +5925,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -5880,7 +5935,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -5890,7 +5945,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -5900,7 +5955,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -5910,7 +5965,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -5920,7 +5975,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -5930,7 +5985,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -5940,7 +5995,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -5950,7 +6005,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -5960,7 +6015,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -5970,7 +6025,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -5980,7 +6035,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>

--- a/input_data/input_data_3.xlsx
+++ b/input_data/input_data_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB0FC9-1AB6-4133-8ECF-6290FBE502D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4620BAE-C737-4255-9751-CD11C4A62119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28440" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>node</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>hydro2</t>
-  </si>
-  <si>
-    <t>spot</t>
   </si>
   <si>
     <t>delay_p</t>
@@ -1708,199 +1705,199 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
     </row>
   </sheetData>
@@ -1916,155 +1913,155 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -2079,21 +2076,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -2116,7 +2113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>30</v>
@@ -2139,21 +2136,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2173,14 +2170,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="13" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -2212,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -2220,7 +2217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -2244,7 +2241,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -2252,7 +2249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -2268,7 +2265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -2276,7 +2273,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -2284,7 +2281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -2292,7 +2289,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -2300,7 +2297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -2308,7 +2305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -2332,7 +2329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -2340,7 +2337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -2348,7 +2345,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -2372,7 +2369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>
@@ -2395,29 +2392,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -2443,7 +2440,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -2469,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -2482,7 +2479,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -2495,7 +2492,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -2508,7 +2505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>42.300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -2534,7 +2531,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -2560,7 +2557,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -2586,7 +2583,7 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -2612,7 +2609,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -2638,7 +2635,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -2651,7 +2648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>111.60000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -2703,7 +2700,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -2716,7 +2713,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>
@@ -2742,12 +2739,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2763,7 +2760,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -2784,9 +2781,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2794,7 +2791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2815,162 +2812,162 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -2989,155 +2986,155 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -3157,14 +3154,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3172,23 +3169,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -3207,38 +3204,38 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -3348,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -3406,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -3493,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -3522,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -3580,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -3638,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -3667,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -3725,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -3783,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -3841,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -3870,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <f>IF($A26&lt;&gt;"",B$2,"")</f>
         <v/>
@@ -3964,23 +3961,23 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4018,9 +4015,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -4057,9 +4054,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -4095,9 +4092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -4134,9 +4131,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -4172,9 +4169,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -4210,7 +4207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4248,43 +4245,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4299,155 +4271,155 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -4462,26 +4434,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4519,10 +4491,10 @@
         <v>37</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>41</v>
@@ -4531,9 +4503,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -4581,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -4631,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -4681,9 +4653,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4731,9 +4703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4781,9 +4753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4831,57 +4803,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
     </row>
   </sheetData>
@@ -4897,9 +4835,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -4950,26 +4888,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A13" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4995,15 +4933,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -5021,15 +4959,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -5047,15 +4985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -5073,15 +5011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -5099,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>53</v>
       </c>
@@ -5107,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -5125,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>53</v>
       </c>
@@ -5133,7 +5071,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -5151,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
@@ -5177,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
@@ -5185,7 +5123,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -5203,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>54</v>
       </c>
@@ -5211,7 +5149,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -5229,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>54</v>
       </c>
@@ -5255,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
@@ -5263,16 +5201,16 @@
         <v>19</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F12" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -5281,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5289,13 +5227,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -5307,9 +5245,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>19</v>
@@ -5321,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="8">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -5333,21 +5271,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="8">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -5356,58 +5294,6 @@
         <v>1</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5426,155 +5312,155 @@
       <selection activeCell="D2" sqref="B1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -5593,9 +5479,9 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -5616,20 +5502,20 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="e">
         <f>IF(timeseries!#REF!&lt;&gt;"",timeseries!#REF!,"")</f>
         <v>#REF!</v>
@@ -5637,139 +5523,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.12499971065</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.166666261575</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.208332812501</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.249999363426</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.291665914352</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.333332465278</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.374999016203</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.416665567129</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.458332118054</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>44671.49999866898</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>44671.541665219906</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>44671.583331770831</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>44671.624998321757</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>44671.666664872682</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>44671.708331423608</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>44671.749997974533</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>44671.791664525466</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>44671.833331076392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>44671.874997627317</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>44671.916664178243</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -5790,22 +5676,22 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
@@ -5815,7 +5701,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
@@ -5825,7 +5711,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
@@ -5835,7 +5721,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>44671.12499971065</v>
       </c>
@@ -5845,7 +5731,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>44671.166666261575</v>
       </c>
@@ -5855,7 +5741,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>44671.208332812501</v>
       </c>
@@ -5865,7 +5751,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>44671.249999363426</v>
       </c>
@@ -5875,7 +5761,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>44671.291665914352</v>
       </c>
@@ -5885,7 +5771,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44671.333332465278</v>
       </c>
@@ -5895,7 +5781,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>44671.374999016203</v>
       </c>
@@ -5905,7 +5791,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>44671.416665567129</v>
       </c>
@@ -5915,7 +5801,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>44671.458332118054</v>
       </c>
@@ -5925,7 +5811,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>44671.49999866898</v>
       </c>
@@ -5935,7 +5821,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>44671.541665219906</v>
       </c>
@@ -5945,7 +5831,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>44671.583331770831</v>
       </c>
@@ -5955,7 +5841,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>44671.624998321757</v>
       </c>
@@ -5965,7 +5851,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>44671.666664872682</v>
       </c>
@@ -5975,7 +5861,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>44671.708331423608</v>
       </c>
@@ -5985,7 +5871,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>44671.749997974533</v>
       </c>
@@ -5995,7 +5881,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>44671.791664525466</v>
       </c>
@@ -6005,7 +5891,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>44671.833331076392</v>
       </c>
@@ -6015,7 +5901,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44671.874997627317</v>
       </c>
@@ -6025,7 +5911,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44671.916664178243</v>
       </c>
@@ -6035,7 +5921,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>44671.958330729169</v>
       </c>

--- a/input_data/input_data_3.xlsx
+++ b/input_data/input_data_3.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4620BAE-C737-4255-9751-CD11C4A62119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591CC92A-277A-4939-95AF-79A7AFF0AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="1788" yWindow="1752" windowWidth="11508" windowHeight="9864" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="21" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
   <si>
     <t>node</t>
   </si>
@@ -286,6 +287,12 @@
   </si>
   <si>
     <t>max_offline</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -1906,6 +1913,276 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>44671.12499971065</v>
+      </c>
+      <c r="B5">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44671.166666261575</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>44671.208332812501</v>
+      </c>
+      <c r="B7">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>44671.249999363426</v>
+      </c>
+      <c r="B8">
+        <v>5.5</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>44671.291665914352</v>
+      </c>
+      <c r="B9">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>44671.333332465278</v>
+      </c>
+      <c r="B10">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>44671.374999016203</v>
+      </c>
+      <c r="B11">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>44671.416665567129</v>
+      </c>
+      <c r="B12">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>44671.458332118054</v>
+      </c>
+      <c r="B13">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>44671.49999866898</v>
+      </c>
+      <c r="B14">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>44671.541665219906</v>
+      </c>
+      <c r="B15">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>44671.583331770831</v>
+      </c>
+      <c r="B16">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>44671.624998321757</v>
+      </c>
+      <c r="B17">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>44671.666664872682</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>44671.708331423608</v>
+      </c>
+      <c r="B19">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>44671.749997974533</v>
+      </c>
+      <c r="B20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>44671.791664525466</v>
+      </c>
+      <c r="B21">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>44671.833331076392</v>
+      </c>
+      <c r="B22">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>44671.874997627317</v>
+      </c>
+      <c r="B23">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>44671.916664178243</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>44671.958330729169</v>
+      </c>
+      <c r="B25">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2072,11 +2349,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2162,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2384,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE0C11E-0044-4E1E-8FA2-AA01459C85A2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -2731,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2773,7 +3050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2804,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2978,7 +3255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3146,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3193,766 +3470,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>-0.5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>-0.5</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <f>IF($A3&lt;&gt;"",B$2,"")</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="B3:G23" si="0">IF($A3&lt;&gt;"",C$2,"")</f>
-        <v>-0.5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>44671.12499971065</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>44671.166666261575</v>
-      </c>
-      <c r="B6">
-        <f>IF($A6&lt;&gt;"",B$2,"")</f>
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>44671.208332812501</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>44671.249999363426</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>44671.291665914352</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>44671.333332465278</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>44671.374999016203</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>44671.416665567129</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>44671.458332118054</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>44671.49999866898</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>44671.541665219906</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>44671.583331770831</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>44671.624998321757</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>44671.666664872682</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>44671.708331423608</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>44671.749997974533</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>44671.791664525466</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>44671.833331076392</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>44671.874997627317</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="B23:G25" si="1">IF($A23&lt;&gt;"",E$2,"")</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>44671.916664178243</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>44671.958330729169</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="str">
-        <f>IF($A26&lt;&gt;"",B$2,"")</f>
-        <v/>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" ref="C26:G26" si="2">IF($A26&lt;&gt;"",C$2,"")</f>
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4264,6 +3781,766 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-0.5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-0.5</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>IF($A3&lt;&gt;"",B$2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="B3:G23" si="0">IF($A3&lt;&gt;"",C$2,"")</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>44671.12499971065</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44671.166666261575</v>
+      </c>
+      <c r="B6">
+        <f>IF($A6&lt;&gt;"",B$2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>44671.208332812501</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>44671.249999363426</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>44671.291665914352</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>44671.333332465278</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>44671.374999016203</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>44671.416665567129</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>44671.458332118054</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>44671.49999866898</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>44671.541665219906</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>44671.583331770831</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>44671.624998321757</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>44671.666664872682</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>44671.708331423608</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>44671.749997974533</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>44671.791664525466</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>44671.833331076392</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>44671.874997627317</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="B23:G25" si="1">IF($A23&lt;&gt;"",E$2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>44671.916664178243</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>44671.958330729169</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="str">
+        <f>IF($A26&lt;&gt;"",B$2,"")</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" ref="C26:G26" si="2">IF($A26&lt;&gt;"",C$2,"")</f>
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -4828,6 +5105,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4287350D-8810-40FD-8F4E-6D4A2371F03E}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -4886,7 +5189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -5304,7 +5607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -5471,7 +5774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -5494,7 +5797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -5666,274 +5969,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>44671</v>
-      </c>
-      <c r="B2">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>44671.041666666664</v>
-      </c>
-      <c r="B3">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>44671.08333321759</v>
-      </c>
-      <c r="B4">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>44671.12499971065</v>
-      </c>
-      <c r="B5">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>44671.166666261575</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>44671.208332812501</v>
-      </c>
-      <c r="B7">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>44671.249999363426</v>
-      </c>
-      <c r="B8">
-        <v>5.5</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>44671.291665914352</v>
-      </c>
-      <c r="B9">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>44671.333332465278</v>
-      </c>
-      <c r="B10">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>44671.374999016203</v>
-      </c>
-      <c r="B11">
-        <v>5.333333333333333</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>44671.416665567129</v>
-      </c>
-      <c r="B12">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>44671.458332118054</v>
-      </c>
-      <c r="B13">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>44671.49999866898</v>
-      </c>
-      <c r="B14">
-        <v>5.833333333333333</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>44671.541665219906</v>
-      </c>
-      <c r="B15">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>44671.583331770831</v>
-      </c>
-      <c r="B16">
-        <v>4.5</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>44671.624998321757</v>
-      </c>
-      <c r="B17">
-        <v>5.166666666666667</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>44671.666664872682</v>
-      </c>
-      <c r="B18">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>44671.708331423608</v>
-      </c>
-      <c r="B19">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>44671.749997974533</v>
-      </c>
-      <c r="B20">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>44671.791664525466</v>
-      </c>
-      <c r="B21">
-        <v>5.666666666666667</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>44671.833331076392</v>
-      </c>
-      <c r="B22">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>44671.874997627317</v>
-      </c>
-      <c r="B23">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>44671.916664178243</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>44671.958330729169</v>
-      </c>
-      <c r="B25">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>